--- a/data/trans_camb/P19C02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C02-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P19C02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C02-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,94</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,26</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,72</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,56</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,35; 16,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,56; 21,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,44; 35,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,2; 14,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,42; 15,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,27; 24,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,29; 11,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,28; 14,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,69; 27,15</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,03%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,38%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,79%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,42; 124,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,89; 163,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,83; 258,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,9; 63,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,48; 73,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,43; 124,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,07; 56,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,82; 71,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,19; 137,83</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,79</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>29,23</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,37</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,8; 5,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,57; 12,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,75; 27,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,32; 13,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,16; 14,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,71; 34,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 7,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,17; 11,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,1; 29,37</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,08%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,62%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,43%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>117,72%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,15; 30,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,01; 69,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>60,83; 146,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,98; 70,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,79; 76,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>95,94; 186,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,94; 38,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,3; 59,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>86,24; 151,02</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,18</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,26</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,63</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,14</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,88</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,18</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,43; 8,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,94; 15,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,22; 28,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,55; 2,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,95; 14,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,84; 28,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,77; 3,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,26; 13,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,26; 26,47</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,83%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,72%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,08%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,79%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,61%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,59%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,85; 33,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,27; 60,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,99; 115,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,54; 8,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,03; 54,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,46; 113,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,43; 14,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,98; 50,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,34; 104,97</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,11</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,67</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,08</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,08; 4,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,53; 8,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,94; 19,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,62; 5,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 12,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,6; 33,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,74; 3,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,13; 9,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,71; 27,66</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,97%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,84%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,75%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,5%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,28%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,4; 15,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,6; 32,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,15; 71,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,08; 20,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,58; 39,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,02; 106,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,92; 11,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,47; 30,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,37; 85,26</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,06</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,54</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,09</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,68</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,93; 7,19</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,06; 9,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,13; 20,58</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,01; 8,43</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,1; 12,32</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,29; 22,33</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 6,67</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,79; 9,7</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,17; 20,16</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,46%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,32%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,38%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,59%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,98; 23,35</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,01; 29,84</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,85; 66,53</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 29,78</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,66; 42,63</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,45; 77,86</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,53; 21,76</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,22; 31,9</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,27; 66,26</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,23</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,96</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,19</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,68</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,63; 3,79</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,35; 8,8</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,89; 20,88</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 4,34</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,44; 10,47</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,1; 26,29</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 3,45</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,44; 9,08</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,57; 22,62</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,78%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,69%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,77%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,03%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,17%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,43; 14,0</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,23; 32,68</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,38; 76,83</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 15,54</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,08; 37,38</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,76; 89,71</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 12,28</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,37; 32,8</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,31; 79,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C02-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,94</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,56</t>
+          <t>20,17</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>7,82</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,26</t>
+          <t>25,79</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17,56</t>
+          <t>23,06</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 16,02</t>
+          <t>-5,33; 5,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 21,44</t>
+          <t>0,8; 11,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,44; 35,56</t>
+          <t>13,49; 25,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 14,27</t>
+          <t>1,23; 11,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 15,85</t>
+          <t>2,36; 12,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 24,78</t>
+          <t>20,92; 30,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 11,0</t>
+          <t>-0,4; 6,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 14,24</t>
+          <t>3,17; 10,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,69; 27,15</t>
+          <t>19,22; 26,77</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>44,18%</t>
+          <t>30,66%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>106,56%</t>
+          <t>93,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>27,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>34,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>51,07%</t>
+          <t>115,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>32,77%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>71,79%</t>
+          <t>104,61%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-38,42; 124,91</t>
+          <t>-21,42; 27,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 163,75</t>
+          <t>3,01; 62,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,83; 258,73</t>
+          <t>55,45; 133,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,9; 63,09</t>
+          <t>4,4; 55,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,48; 73,65</t>
+          <t>9,67; 66,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,43; 124,86</t>
+          <t>81,87; 156,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-25,07; 56,03</t>
+          <t>-1,68; 33,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,82; 71,62</t>
+          <t>12,77; 55,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,19; 137,83</t>
+          <t>77,95; 133,93</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,16</t>
+          <t>10,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>21,18</t>
+          <t>13,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,34</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,79</t>
+          <t>9,63</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>29,23</t>
+          <t>23,16</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,51</t>
+          <t>9,88</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>25,37</t>
+          <t>17,51</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 5,78</t>
+          <t>-1,43; 8,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 12,39</t>
+          <t>4,94; 15,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,75; 27,83</t>
+          <t>-7,39; 25,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,32; 13,25</t>
+          <t>-6,55; 2,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 14,39</t>
+          <t>4,95; 14,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,71; 34,01</t>
+          <t>18,96; 27,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 7,45</t>
+          <t>-2,77; 3,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 11,79</t>
+          <t>6,26; 13,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,1; 29,37</t>
+          <t>0,86; 24,39</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,49%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>28,08%</t>
+          <t>37,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>96,62%</t>
+          <t>48,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>34,58%</t>
+          <t>-7,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>41,43%</t>
+          <t>33,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>137,78%</t>
+          <t>81,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34,84%</t>
+          <t>35,61%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>117,72%</t>
+          <t>63,14%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,15; 30,07</t>
+          <t>-4,85; 33,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 69,19</t>
+          <t>16,27; 60,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>60,83; 146,0</t>
+          <t>-25,7; 99,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,98; 70,42</t>
+          <t>-21,54; 8,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,79; 76,69</t>
+          <t>16,03; 54,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,94; 186,54</t>
+          <t>61,26; 109,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 38,52</t>
+          <t>-9,43; 14,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,3; 59,02</t>
+          <t>20,98; 50,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>86,24; 151,02</t>
+          <t>8,61; 90,43</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,18</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>22,26</t>
+          <t>13,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,01</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,63</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>24,14</t>
+          <t>19,82</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,88</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>23,18</t>
+          <t>17,46</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 8,14</t>
+          <t>-7,08; 4,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,94; 15,01</t>
+          <t>-3,53; 8,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,22; 28,18</t>
+          <t>7,42; 19,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 2,41</t>
+          <t>-4,62; 5,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,95; 14,3</t>
+          <t>0,89; 12,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,84; 28,56</t>
+          <t>4,68; 42,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 3,79</t>
+          <t>-4,74; 3,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,26; 13,04</t>
+          <t>1,13; 9,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,26; 26,47</t>
+          <t>8,68; 37,1</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>-4,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>37,83%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>82,72%</t>
+          <t>45,97%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-7,08%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>33,81%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>84,79%</t>
+          <t>59,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>-1,5%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>35,61%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>83,59%</t>
+          <t>54,77%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 33,88</t>
+          <t>-21,4; 15,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,27; 60,95</t>
+          <t>-10,6; 32,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>50,99; 115,18</t>
+          <t>22,67; 72,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 8,51</t>
+          <t>-13,08; 20,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,03; 54,77</t>
+          <t>2,58; 39,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>64,46; 113,06</t>
+          <t>13,8; 136,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 14,59</t>
+          <t>-13,92; 11,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,98; 50,22</t>
+          <t>3,47; 30,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>64,34; 104,97</t>
+          <t>26,47; 115,14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,11</t>
+          <t>15,06</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,82</t>
+          <t>7,54</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,67</t>
+          <t>15,1</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>15,08</t>
+          <t>15,05</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 4,16</t>
+          <t>-2,93; 7,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 8,67</t>
+          <t>-1,06; 9,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,94; 19,87</t>
+          <t>10,02; 20,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 5,98</t>
+          <t>0,01; 8,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,89; 12,23</t>
+          <t>3,1; 12,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,6; 33,37</t>
+          <t>6,41; 20,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 3,34</t>
+          <t>0,17; 6,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 9,07</t>
+          <t>2,79; 9,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,71; 27,66</t>
+          <t>9,06; 18,59</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,97%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>46,84%</t>
+          <t>44,46%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>24,32%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>46,75%</t>
+          <t>48,71%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-1,5%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>47,28%</t>
+          <t>46,55%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,4; 15,45</t>
+          <t>-7,98; 23,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 32,08</t>
+          <t>-2,01; 29,84</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>24,15; 71,95</t>
+          <t>27,13; 66,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 20,0</t>
+          <t>0,34; 29,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,58; 39,31</t>
+          <t>8,66; 42,63</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>19,02; 106,16</t>
+          <t>20,97; 69,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,92; 11,14</t>
+          <t>0,53; 21,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,47; 30,34</t>
+          <t>8,22; 31,9</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>28,37; 85,26</t>
+          <t>28,37; 61,35</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>15,06</t>
+          <t>14,93</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>18,09</t>
+          <t>20,69</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>7,19</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>16,68</t>
+          <t>17,9</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 7,19</t>
+          <t>-1,63; 3,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 9,17</t>
+          <t>3,35; 8,8</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,13; 20,58</t>
+          <t>4,74; 19,51</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,01; 8,43</t>
+          <t>-0,52; 4,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,1; 12,32</t>
+          <t>5,44; 10,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13,29; 22,33</t>
+          <t>16,32; 30,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,17; 6,67</t>
+          <t>-0,07; 3,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,79; 9,7</t>
+          <t>5,44; 9,08</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>13,17; 20,16</t>
+          <t>12,68; 22,35</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>21,78%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>44,46%</t>
+          <t>52,19%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>24,32%</t>
+          <t>27,77%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>58,38%</t>
+          <t>71,1%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>18,37%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>51,59%</t>
+          <t>62,0%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 23,35</t>
+          <t>-5,43; 14,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 29,84</t>
+          <t>11,23; 32,68</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>26,85; 66,53</t>
+          <t>17,66; 69,78</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,34; 29,78</t>
+          <t>-1,7; 15,54</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>8,66; 42,63</t>
+          <t>18,08; 37,38</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>39,45; 77,86</t>
+          <t>54,28; 104,99</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>0,53; 21,76</t>
+          <t>-0,25; 12,28</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>8,22; 31,9</t>
+          <t>18,37; 32,8</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>38,27; 66,26</t>
+          <t>43,71; 78,79</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,05</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>6,23</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>18,23</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>2,12</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>8,08</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>20,96</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,61</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>7,19</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>19,68</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-1,63; 3,79</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>3,35; 8,8</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>14,89; 20,88</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,52; 4,34</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>5,44; 10,47</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>18,1; 26,29</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,07; 3,45</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>5,44; 9,08</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>17,57; 22,62</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>3,68%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>21,78%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>63,69%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>7,29%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>27,77%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>72,03%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>5,56%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>24,89%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>68,17%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-5,43; 14,0</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>11,23; 32,68</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>49,38; 76,83</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-1,7; 15,54</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>18,08; 37,38</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>58,76; 89,71</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 12,28</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>18,37; 32,8</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>59,31; 79,51</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P19C02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C02-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 5,19</t>
+          <t>-5,08; 5,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 11,73</t>
+          <t>1,68; 11,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,49; 25,2</t>
+          <t>13,79; 25,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 11,42</t>
+          <t>1,29; 10,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,36; 12,9</t>
+          <t>2,35; 13,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,92; 30,45</t>
+          <t>20,88; 30,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 6,75</t>
+          <t>-0,39; 6,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 10,86</t>
+          <t>3,41; 11,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,22; 26,77</t>
+          <t>19,23; 26,93</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,42; 27,08</t>
+          <t>-20,32; 28,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,01; 62,15</t>
+          <t>6,74; 62,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>55,45; 133,93</t>
+          <t>55,17; 135,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,4; 55,52</t>
+          <t>4,96; 55,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,67; 66,0</t>
+          <t>9,89; 66,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>81,87; 156,51</t>
+          <t>81,59; 153,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 33,74</t>
+          <t>-1,85; 34,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,77; 55,34</t>
+          <t>13,46; 54,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>77,95; 133,93</t>
+          <t>80,3; 136,01</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 8,14</t>
+          <t>-1,28; 8,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,94; 15,01</t>
+          <t>5,4; 15,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 25,63</t>
+          <t>-8,46; 25,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 2,41</t>
+          <t>-6,36; 2,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 14,3</t>
+          <t>5,24; 14,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,96; 27,55</t>
+          <t>19,16; 27,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 3,79</t>
+          <t>-2,65; 3,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,26; 13,04</t>
+          <t>6,63; 13,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 24,39</t>
+          <t>0,11; 24,27</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 33,88</t>
+          <t>-4,27; 34,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,27; 60,95</t>
+          <t>18,12; 63,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,7; 99,17</t>
+          <t>-25,96; 100,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 8,51</t>
+          <t>-20,79; 10,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,03; 54,77</t>
+          <t>16,92; 56,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>61,26; 109,07</t>
+          <t>61,79; 106,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 14,59</t>
+          <t>-8,86; 14,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,98; 50,22</t>
+          <t>22,37; 50,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,61; 90,43</t>
+          <t>2,05; 89,71</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 4,16</t>
+          <t>-7,21; 4,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 8,67</t>
+          <t>-2,95; 8,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,42; 19,69</t>
+          <t>7,44; 19,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 5,98</t>
+          <t>-4,99; 5,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 12,23</t>
+          <t>0,97; 12,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,68; 42,06</t>
+          <t>4,45; 43,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 3,34</t>
+          <t>-4,46; 3,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 9,07</t>
+          <t>0,66; 8,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,68; 37,1</t>
+          <t>8,66; 39,17</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,4; 15,45</t>
+          <t>-21,64; 14,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 32,08</t>
+          <t>-8,92; 32,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,67; 72,21</t>
+          <t>22,4; 71,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 20,0</t>
+          <t>-14,32; 18,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,58; 39,31</t>
+          <t>2,55; 40,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,8; 136,42</t>
+          <t>12,75; 136,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,92; 11,14</t>
+          <t>-13,27; 10,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,47; 30,34</t>
+          <t>2,45; 30,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,47; 115,14</t>
+          <t>25,96; 124,75</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 7,19</t>
+          <t>-3,32; 6,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 9,17</t>
+          <t>-0,92; 8,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,02; 20,68</t>
+          <t>10,18; 20,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,01; 8,43</t>
+          <t>-0,18; 9,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,1; 12,32</t>
+          <t>2,94; 12,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,41; 20,43</t>
+          <t>4,56; 20,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,17; 6,67</t>
+          <t>-0,01; 6,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,79; 9,7</t>
+          <t>2,8; 9,55</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,06; 18,59</t>
+          <t>9,06; 18,65</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 23,35</t>
+          <t>-9,16; 21,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 29,84</t>
+          <t>-2,41; 28,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>27,13; 66,87</t>
+          <t>27,24; 63,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,34; 29,78</t>
+          <t>-0,53; 32,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,66; 42,63</t>
+          <t>8,68; 42,26</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,97; 69,73</t>
+          <t>17,27; 71,96</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,53; 21,76</t>
+          <t>-0,06; 21,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,22; 31,9</t>
+          <t>8,25; 31,06</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>28,37; 61,35</t>
+          <t>27,38; 60,24</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 3,79</t>
+          <t>-1,54; 3,66</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,35; 8,8</t>
+          <t>3,48; 8,79</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,74; 19,51</t>
+          <t>5,72; 19,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 4,34</t>
+          <t>-0,17; 4,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,44; 10,47</t>
+          <t>5,48; 10,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>16,32; 30,22</t>
+          <t>16,34; 30,13</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 3,45</t>
+          <t>-0,25; 3,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,44; 9,08</t>
+          <t>5,2; 8,92</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>12,68; 22,35</t>
+          <t>12,9; 22,36</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 14,0</t>
+          <t>-5,24; 13,47</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>11,23; 32,68</t>
+          <t>11,52; 32,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>17,66; 69,78</t>
+          <t>20,64; 69,24</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 15,54</t>
+          <t>-0,52; 16,85</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>18,08; 37,38</t>
+          <t>18,18; 38,44</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>54,28; 104,99</t>
+          <t>54,66; 105,87</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 12,28</t>
+          <t>-0,83; 11,66</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>18,37; 32,8</t>
+          <t>17,38; 31,98</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>43,71; 78,79</t>
+          <t>44,04; 79,34</t>
         </is>
       </c>
     </row>
